--- a/test.xlsx
+++ b/test.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,13 +111,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:C7"/>
+  <dimension ref="C5:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="n">
@@ -127,11 +128,18 @@
       <c r="C6" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <f aca="false">C5*C6</f>
         <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">C5*D6</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
